--- a/Versao1/Estudo dos dados.xlsx
+++ b/Versao1/Estudo dos dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monte\ProgetosIIA\TP_2_LucasMonteiro_2022153271\Work2_IIA\Versao1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A445033E-EF82-4783-B940-220759FEB38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1261F9-CCC0-44FF-AA34-63EE5E884051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="20">
   <si>
     <t>Trepa-Colinas com Vizinhança 1</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -37,34 +37,10 @@
     <t>100 it</t>
   </si>
   <si>
-    <t>1000 it</t>
-  </si>
-  <si>
-    <t>5000 it</t>
-  </si>
-  <si>
-    <t>10000 it</t>
-  </si>
-  <si>
-    <t>20: grafo_20.txt</t>
-  </si>
-  <si>
     <t>Melhor</t>
   </si>
   <si>
     <t>MBF</t>
-  </si>
-  <si>
-    <t>50:  grafo_50.txt</t>
-  </si>
-  <si>
-    <t>100:  grafo_100.txt</t>
-  </si>
-  <si>
-    <t>150: grafo_150.txt</t>
-  </si>
-  <si>
-    <t>250: grafo_250.txt</t>
   </si>
   <si>
     <t>Trepa-Colinas com Vizinhança 1 e aceitando soluções de custo igual</t>
@@ -74,28 +50,49 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>Trepa-Colinas probabilístico, com vizinhança 1 e aceitando soluções de custo igual</t>
-  </si>
-  <si>
-    <t>100 iterações Prob = 0.01</t>
-  </si>
-  <si>
-    <t>5000 iterações Prob = 0.01</t>
-  </si>
-  <si>
-    <t>100 iterações Prob = 0.0005</t>
-  </si>
-  <si>
-    <t>5000 iterações Prob = 0.0005</t>
+    <t>file1.txt</t>
+  </si>
+  <si>
+    <t>file2.txt</t>
+  </si>
+  <si>
+    <t>file3.txt</t>
+  </si>
+  <si>
+    <t>file4.txt</t>
+  </si>
+  <si>
+    <t>file5.txt</t>
+  </si>
+  <si>
+    <t>250 it</t>
+  </si>
+  <si>
+    <t>300 it</t>
+  </si>
+  <si>
+    <t>450 it</t>
+  </si>
+  <si>
+    <t>Recombinação Single point Crossover</t>
+  </si>
+  <si>
+    <t>Recombinação Double point Crossover</t>
+  </si>
+  <si>
+    <t>Mutação Troca</t>
+  </si>
+  <si>
+    <t>Mutação Insersão</t>
+  </si>
+  <si>
+    <t>Hibrido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,7 +121,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,12 +140,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -261,14 +252,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -278,9 +266,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -295,36 +280,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,136 +599,136 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12"/>
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12"/>
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12"/>
+      <c r="B10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
+      <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" ht="23.4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1"/>
     </row>
@@ -778,142 +741,142 @@
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
+      <c r="B16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12"/>
+      <c r="B19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="12"/>
+      <c r="B21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="B22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12"/>
+      <c r="B23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
+      <c r="B24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="10"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" ht="23.4" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
@@ -924,271 +887,885 @@
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="4" t="s">
+      <c r="A29" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
+      <c r="B29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="12"/>
+      <c r="B32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="B33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="12"/>
+      <c r="B34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="B35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="12"/>
+      <c r="B36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-    </row>
-    <row r="40" spans="1:6" ht="23.4" x14ac:dyDescent="0.35">
+      <c r="B37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="12"/>
+      <c r="B38" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="1:8" ht="23.4" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="13" t="s">
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="14" t="s">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="13"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="12"/>
+      <c r="B43" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="12"/>
+      <c r="B45" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="12"/>
+      <c r="B47" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="13"/>
+    </row>
+    <row r="48" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="13"/>
+    </row>
+    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="12"/>
+      <c r="B49" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="13"/>
+    </row>
+    <row r="50" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="13"/>
+    </row>
+    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="12"/>
+      <c r="B51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="13"/>
+    </row>
+    <row r="52" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="13"/>
+    </row>
+    <row r="53" spans="1:8" ht="23.4" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="B53" s="1"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="12"/>
+      <c r="B56" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="12"/>
+      <c r="B58" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="12"/>
+      <c r="B60" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="12"/>
+      <c r="B62" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="12"/>
+      <c r="B64" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="1:6" ht="23.4" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="B66" s="1"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="5"/>
+    </row>
+    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="12"/>
+      <c r="B69" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="12"/>
+      <c r="B71" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="5"/>
+    </row>
+    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="12"/>
+      <c r="B73" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="8"/>
+    </row>
+    <row r="74" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="5"/>
+    </row>
+    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="12"/>
+      <c r="B75" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="8"/>
+    </row>
+    <row r="76" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="5"/>
+    </row>
+    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="12"/>
+      <c r="B77" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="8"/>
+    </row>
+    <row r="78" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:6" ht="23.4" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="B79" s="1"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+    </row>
+    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="5"/>
+    </row>
+    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="12"/>
+      <c r="B82" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="5"/>
+    </row>
+    <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="12"/>
+      <c r="B84" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="8"/>
+    </row>
+    <row r="85" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="5"/>
+    </row>
+    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="12"/>
+      <c r="B86" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="8"/>
+    </row>
+    <row r="87" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="5"/>
+    </row>
+    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="12"/>
+      <c r="B88" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="8"/>
+    </row>
+    <row r="89" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="5"/>
+    </row>
+    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="12"/>
+      <c r="B90" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="8"/>
+    </row>
+    <row r="91" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="92" spans="1:6" ht="23.4" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="16" t="s">
+      <c r="B92" s="1"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+    </row>
+    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18" t="s">
+      <c r="B94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="5"/>
+    </row>
+    <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="12"/>
+      <c r="B95" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="8"/>
+    </row>
+    <row r="96" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="10"/>
-    </row>
-    <row r="44" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="15" t="s">
+      <c r="B96" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="5"/>
+    </row>
+    <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="12"/>
+      <c r="B97" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="8"/>
+    </row>
+    <row r="98" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="6"/>
-    </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="17"/>
-      <c r="B45" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
+      <c r="B98" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="5"/>
+    </row>
+    <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="12"/>
+      <c r="B99" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="8"/>
+    </row>
+    <row r="100" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="20"/>
-    </row>
-    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="17"/>
-      <c r="B47" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="22"/>
-    </row>
-    <row r="48" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
+      <c r="B100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="5"/>
+    </row>
+    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="12"/>
+      <c r="B101" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="8"/>
+    </row>
+    <row r="102" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="20"/>
-    </row>
-    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="17"/>
-      <c r="B49" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="22"/>
-    </row>
-    <row r="50" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="17"/>
-      <c r="B51" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="10"/>
-    </row>
-    <row r="52" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="B102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="5"/>
+    </row>
+    <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="12"/>
+      <c r="B103" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="8"/>
+    </row>
+    <row r="104" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
+  <mergeCells count="40">
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
@@ -1198,12 +1775,11 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Versao1/Estudo dos dados.xlsx
+++ b/Versao1/Estudo dos dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monte\ProgetosIIA\TP_2_LucasMonteiro_2022153271\Work2_IIA\Versao1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1261F9-CCC0-44FF-AA34-63EE5E884051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58E8E88-8E9D-425E-8360-07733808A629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="41">
   <si>
     <t>Trepa-Colinas com Vizinhança 1</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -65,15 +65,9 @@
     <t>file5.txt</t>
   </si>
   <si>
-    <t>250 it</t>
-  </si>
-  <si>
     <t>300 it</t>
   </si>
   <si>
-    <t>450 it</t>
-  </si>
-  <si>
     <t>Recombinação Single point Crossover</t>
   </si>
   <si>
@@ -87,6 +81,75 @@
   </si>
   <si>
     <t>Hibrido</t>
+  </si>
+  <si>
+    <t>650 it</t>
+  </si>
+  <si>
+    <t>800 it</t>
+  </si>
+  <si>
+    <t>115.000000</t>
+  </si>
+  <si>
+    <t>94.400002</t>
+  </si>
+  <si>
+    <t>92.333336</t>
+  </si>
+  <si>
+    <t>94.000000</t>
+  </si>
+  <si>
+    <t>431.000000</t>
+  </si>
+  <si>
+    <t>442.000000</t>
+  </si>
+  <si>
+    <t>417.000000</t>
+  </si>
+  <si>
+    <t>431.500000</t>
+  </si>
+  <si>
+    <t>179.000000</t>
+  </si>
+  <si>
+    <t>91.833336</t>
+  </si>
+  <si>
+    <t>109.714287</t>
+  </si>
+  <si>
+    <t>97.166664</t>
+  </si>
+  <si>
+    <t>105.500000</t>
+  </si>
+  <si>
+    <t>446.000000</t>
+  </si>
+  <si>
+    <t>427.000000</t>
+  </si>
+  <si>
+    <t>437.250000</t>
+  </si>
+  <si>
+    <t>431.666656</t>
+  </si>
+  <si>
+    <t>57.740002</t>
+  </si>
+  <si>
+    <t>54.820000</t>
+  </si>
+  <si>
+    <t>52.850769</t>
+  </si>
+  <si>
+    <t>53.393749</t>
   </si>
 </sst>
 </file>
@@ -252,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -286,8 +349,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,10 +663,10 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -615,20 +676,36 @@
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
+      <c r="C3" s="4">
+        <v>100</v>
+      </c>
+      <c r="D3" s="4">
+        <v>66</v>
+      </c>
+      <c r="E3" s="4">
+        <v>52</v>
+      </c>
+      <c r="F3" s="5">
+        <v>52</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
+      <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
@@ -659,20 +736,36 @@
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
+      <c r="C7" s="4">
+        <v>431</v>
+      </c>
+      <c r="D7" s="4">
+        <v>437</v>
+      </c>
+      <c r="E7" s="4">
+        <v>417</v>
+      </c>
+      <c r="F7" s="5">
+        <v>427</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
+      <c r="C8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
@@ -681,7 +774,9 @@
       <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4">
+        <v>179</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
@@ -691,7 +786,9 @@
       <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
@@ -744,10 +841,10 @@
         <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -890,10 +987,10 @@
         <v>12</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -903,20 +1000,36 @@
       <c r="B29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5"/>
+      <c r="C29" s="4">
+        <v>76</v>
+      </c>
+      <c r="D29" s="4">
+        <v>73</v>
+      </c>
+      <c r="E29" s="4">
+        <v>58</v>
+      </c>
+      <c r="F29" s="5">
+        <v>72</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="8"/>
+      <c r="C30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
@@ -940,29 +1053,45 @@
       <c r="E32" s="7"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="4">
+        <v>446</v>
+      </c>
+      <c r="D33" s="4">
+        <v>427</v>
+      </c>
+      <c r="E33" s="4">
+        <v>417</v>
+      </c>
+      <c r="F33" s="5">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>10</v>
       </c>
@@ -974,7 +1103,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
       <c r="B36" s="6" t="s">
         <v>4</v>
@@ -984,7 +1113,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>11</v>
       </c>
@@ -996,7 +1125,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
       <c r="B38" s="6" t="s">
         <v>4</v>
@@ -1006,23 +1135,21 @@
       <c r="E38" s="7"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
     </row>
-    <row r="40" spans="1:8" ht="23.4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="23.4" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-    </row>
-    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>1</v>
       </c>
@@ -1034,15 +1161,13 @@
         <v>12</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="14"/>
-      <c r="H41" s="13"/>
-    </row>
-    <row r="42" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>7</v>
       </c>
@@ -1053,10 +1178,8 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="13"/>
-    </row>
-    <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12"/>
       <c r="B43" s="6" t="s">
         <v>4</v>
@@ -1065,10 +1188,8 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="8"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="13"/>
-    </row>
-    <row r="44" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>8</v>
       </c>
@@ -1079,10 +1200,8 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12"/>
       <c r="B45" s="6" t="s">
         <v>4</v>
@@ -1091,10 +1210,8 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="8"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="13"/>
-    </row>
-    <row r="46" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>9</v>
       </c>
@@ -1105,10 +1222,8 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="13"/>
-    </row>
-    <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="12"/>
       <c r="B47" s="6" t="s">
         <v>4</v>
@@ -1117,10 +1232,8 @@
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="13"/>
-    </row>
-    <row r="48" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>10</v>
       </c>
@@ -1131,10 +1244,8 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="13"/>
-    </row>
-    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="12"/>
       <c r="B49" s="6" t="s">
         <v>4</v>
@@ -1143,10 +1254,8 @@
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="8"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="13"/>
-    </row>
-    <row r="50" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>11</v>
       </c>
@@ -1157,10 +1266,8 @@
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="13"/>
-    </row>
-    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="12"/>
       <c r="B51" s="6" t="s">
         <v>4</v>
@@ -1169,22 +1276,11 @@
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="8"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="13"/>
-    </row>
-    <row r="52" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="13"/>
-    </row>
-    <row r="53" spans="1:8" ht="23.4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:6" ht="23.4" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="10"/>
@@ -1192,7 +1288,7 @@
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>1</v>
       </c>
@@ -1204,13 +1300,13 @@
         <v>12</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>7</v>
       </c>
@@ -1222,7 +1318,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12"/>
       <c r="B56" s="6" t="s">
         <v>4</v>
@@ -1232,7 +1328,7 @@
       <c r="E56" s="7"/>
       <c r="F56" s="8"/>
     </row>
-    <row r="57" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>8</v>
       </c>
@@ -1244,7 +1340,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="12"/>
       <c r="B58" s="6" t="s">
         <v>4</v>
@@ -1254,7 +1350,7 @@
       <c r="E58" s="7"/>
       <c r="F58" s="8"/>
     </row>
-    <row r="59" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>9</v>
       </c>
@@ -1266,7 +1362,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="5"/>
     </row>
-    <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="12"/>
       <c r="B60" s="6" t="s">
         <v>4</v>
@@ -1276,7 +1372,7 @@
       <c r="E60" s="7"/>
       <c r="F60" s="8"/>
     </row>
-    <row r="61" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>10</v>
       </c>
@@ -1288,7 +1384,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="5"/>
     </row>
-    <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="12"/>
       <c r="B62" s="6" t="s">
         <v>4</v>
@@ -1298,7 +1394,7 @@
       <c r="E62" s="7"/>
       <c r="F62" s="8"/>
     </row>
-    <row r="63" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>11</v>
       </c>
@@ -1310,7 +1406,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="5"/>
     </row>
-    <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="12"/>
       <c r="B64" s="6" t="s">
         <v>4</v>
@@ -1323,7 +1419,7 @@
     <row r="65" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:6" ht="23.4" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="10"/>
@@ -1343,10 +1439,10 @@
         <v>12</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1462,7 +1558,7 @@
     <row r="78" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="79" spans="1:6" ht="23.4" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="10"/>
@@ -1482,10 +1578,10 @@
         <v>12</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1601,7 +1697,7 @@
     <row r="91" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="92" spans="1:6" ht="23.4" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="10"/>
@@ -1621,10 +1717,10 @@
         <v>12</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1634,20 +1730,36 @@
       <c r="B94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="5"/>
+      <c r="C94" s="4">
+        <v>52</v>
+      </c>
+      <c r="D94" s="4">
+        <v>52</v>
+      </c>
+      <c r="E94" s="4">
+        <v>52</v>
+      </c>
+      <c r="F94" s="5">
+        <v>52</v>
+      </c>
     </row>
     <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="12"/>
       <c r="B95" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="8"/>
+      <c r="C95" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="96" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A96" s="11" t="s">
@@ -1740,26 +1852,16 @@
     <row r="104" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="A22:A23"/>
@@ -1767,19 +1869,29 @@
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Versao1/Estudo dos dados.xlsx
+++ b/Versao1/Estudo dos dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monte\ProgetosIIA\TP_2_LucasMonteiro_2022153271\Work2_IIA\Versao1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58E8E88-8E9D-425E-8360-07733808A629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A97A188-55EC-4FEF-B054-4FF574A13F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="96">
   <si>
     <t>Trepa-Colinas com Vizinhança 1</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -68,12 +68,6 @@
     <t>300 it</t>
   </si>
   <si>
-    <t>Recombinação Single point Crossover</t>
-  </si>
-  <si>
-    <t>Recombinação Double point Crossover</t>
-  </si>
-  <si>
     <t>Mutação Troca</t>
   </si>
   <si>
@@ -116,30 +110,12 @@
     <t>179.000000</t>
   </si>
   <si>
-    <t>91.833336</t>
-  </si>
-  <si>
-    <t>109.714287</t>
-  </si>
-  <si>
-    <t>97.166664</t>
-  </si>
-  <si>
-    <t>105.500000</t>
-  </si>
-  <si>
     <t>446.000000</t>
   </si>
   <si>
     <t>427.000000</t>
   </si>
   <si>
-    <t>437.250000</t>
-  </si>
-  <si>
-    <t>431.666656</t>
-  </si>
-  <si>
     <t>57.740002</t>
   </si>
   <si>
@@ -150,6 +126,195 @@
   </si>
   <si>
     <t>53.393749</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 429.429993</t>
+  </si>
+  <si>
+    <t>418.429993</t>
+  </si>
+  <si>
+    <t>417.866150</t>
+  </si>
+  <si>
+    <t>418.343750</t>
+  </si>
+  <si>
+    <t>87.250000</t>
+  </si>
+  <si>
+    <t>56.533333</t>
+  </si>
+  <si>
+    <t>44.187691</t>
+  </si>
+  <si>
+    <t>37.151249</t>
+  </si>
+  <si>
+    <t>449.730011</t>
+  </si>
+  <si>
+    <t>336.829987</t>
+  </si>
+  <si>
+    <t>250.660004</t>
+  </si>
+  <si>
+    <t>202.535004</t>
+  </si>
+  <si>
+    <t>70.418922</t>
+  </si>
+  <si>
+    <t>48.468502</t>
+  </si>
+  <si>
+    <t>32.407528</t>
+  </si>
+  <si>
+    <t>23.387180</t>
+  </si>
+  <si>
+    <t>209.781250</t>
+  </si>
+  <si>
+    <t>231.867645</t>
+  </si>
+  <si>
+    <t>706.530029</t>
+  </si>
+  <si>
+    <t>182.578949</t>
+  </si>
+  <si>
+    <t>588.043457</t>
+  </si>
+  <si>
+    <t>217.949493</t>
+  </si>
+  <si>
+    <t>272.485718</t>
+  </si>
+  <si>
+    <t>723.833313</t>
+  </si>
+  <si>
+    <t>170.392853</t>
+  </si>
+  <si>
+    <t>539.000000</t>
+  </si>
+  <si>
+    <t>229.534775</t>
+  </si>
+  <si>
+    <t>242.564041</t>
+  </si>
+  <si>
+    <t>740.320007</t>
+  </si>
+  <si>
+    <t>189.769226</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 522.909119</t>
+  </si>
+  <si>
+    <t>228.602280</t>
+  </si>
+  <si>
+    <t>253.426834</t>
+  </si>
+  <si>
+    <t>724.255005</t>
+  </si>
+  <si>
+    <t>179.444443</t>
+  </si>
+  <si>
+    <t>534.769226</t>
+  </si>
+  <si>
+    <t>190.550003</t>
+  </si>
+  <si>
+    <t>271.049988</t>
+  </si>
+  <si>
+    <t>686.109985</t>
+  </si>
+  <si>
+    <t>189.000000</t>
+  </si>
+  <si>
+    <t>233.463333</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 269.200012</t>
+  </si>
+  <si>
+    <t>728.243347</t>
+  </si>
+  <si>
+    <t>221.083466</t>
+  </si>
+  <si>
+    <t>283.696259</t>
+  </si>
+  <si>
+    <t>718.341553</t>
+  </si>
+  <si>
+    <t>523.347839</t>
+  </si>
+  <si>
+    <t>219.569641</t>
+  </si>
+  <si>
+    <t>256.190369</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 745.013733</t>
+  </si>
+  <si>
+    <t>160.000000</t>
+  </si>
+  <si>
+    <t>129.000000</t>
+  </si>
+  <si>
+    <t>91.457336</t>
+  </si>
+  <si>
+    <t>104.714287</t>
+  </si>
+  <si>
+    <t>93.167664</t>
+  </si>
+  <si>
+    <t>102.533000</t>
+  </si>
+  <si>
+    <t>430.000000</t>
+  </si>
+  <si>
+    <t>437.250056</t>
+  </si>
+  <si>
+    <t>Recombinação Single point Crossover Reparação</t>
+  </si>
+  <si>
+    <t>Recombinação Double point Crossover Reparação</t>
+  </si>
+  <si>
+    <t>Recombinação Single point Crossover Penalisação</t>
+  </si>
+  <si>
+    <t>Recombinação Double point Crossover Penalisação</t>
+  </si>
+  <si>
+    <t>230.032257</t>
   </si>
 </sst>
 </file>
@@ -315,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -349,6 +514,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="J99" sqref="J99"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,6 +810,12 @@
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
     <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.35">
@@ -663,10 +836,10 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -695,16 +868,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -714,20 +887,36 @@
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
+      <c r="C5" s="4">
+        <v>129</v>
+      </c>
+      <c r="D5" s="4">
+        <v>129</v>
+      </c>
+      <c r="E5" s="4">
+        <v>129</v>
+      </c>
+      <c r="F5" s="4">
+        <v>129</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
+      <c r="C6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
@@ -755,16 +944,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -777,9 +966,15 @@
       <c r="C9" s="4">
         <v>179</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
+      <c r="D9" s="4">
+        <v>189</v>
+      </c>
+      <c r="E9" s="4">
+        <v>189</v>
+      </c>
+      <c r="F9" s="4">
+        <v>189</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
@@ -787,11 +982,17 @@
         <v>4</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
@@ -800,20 +1001,36 @@
       <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
+      <c r="C11" s="4">
+        <v>539</v>
+      </c>
+      <c r="D11" s="4">
+        <v>539</v>
+      </c>
+      <c r="E11" s="4">
+        <v>539</v>
+      </c>
+      <c r="F11" s="4">
+        <v>539</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
+      <c r="C12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -841,10 +1058,10 @@
         <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -854,20 +1071,36 @@
       <c r="B16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
+      <c r="C16" s="4">
+        <v>100</v>
+      </c>
+      <c r="D16" s="4">
+        <v>66</v>
+      </c>
+      <c r="E16" s="4">
+        <v>52</v>
+      </c>
+      <c r="F16" s="5">
+        <v>52</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
+      <c r="C17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
@@ -876,20 +1109,36 @@
       <c r="B18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
+      <c r="C18" s="4">
+        <v>129</v>
+      </c>
+      <c r="D18" s="4">
+        <v>129</v>
+      </c>
+      <c r="E18" s="4">
+        <v>129</v>
+      </c>
+      <c r="F18" s="4">
+        <v>129</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
+      <c r="C19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
@@ -898,20 +1147,36 @@
       <c r="B20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
+      <c r="C20" s="4">
+        <v>431</v>
+      </c>
+      <c r="D20" s="4">
+        <v>437</v>
+      </c>
+      <c r="E20" s="4">
+        <v>417</v>
+      </c>
+      <c r="F20" s="5">
+        <v>427</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="B21" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8"/>
+      <c r="C21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
@@ -920,20 +1185,36 @@
       <c r="B22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
+      <c r="C22" s="4">
+        <v>179</v>
+      </c>
+      <c r="D22" s="4">
+        <v>189</v>
+      </c>
+      <c r="E22" s="4">
+        <v>189</v>
+      </c>
+      <c r="F22" s="4">
+        <v>189</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
       <c r="B23" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
+      <c r="C23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
@@ -942,20 +1223,36 @@
       <c r="B24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5"/>
+      <c r="C24" s="4">
+        <v>539</v>
+      </c>
+      <c r="D24" s="4">
+        <v>539</v>
+      </c>
+      <c r="E24" s="4">
+        <v>539</v>
+      </c>
+      <c r="F24" s="4">
+        <v>539</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
       <c r="B25" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
+      <c r="C25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
@@ -987,10 +1284,10 @@
         <v>12</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1019,16 +1316,16 @@
         <v>4</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1038,22 +1335,38 @@
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5"/>
+      <c r="C31" s="4">
+        <v>129</v>
+      </c>
+      <c r="D31" s="4">
+        <v>129</v>
+      </c>
+      <c r="E31" s="4">
+        <v>129</v>
+      </c>
+      <c r="F31" s="4">
+        <v>129</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
       <c r="B32" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>9</v>
       </c>
@@ -1073,83 +1386,123 @@
         <v>429</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="4">
+        <v>179</v>
+      </c>
+      <c r="D35" s="4">
+        <v>189</v>
+      </c>
+      <c r="E35" s="4">
+        <v>189</v>
+      </c>
+      <c r="F35" s="4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
       <c r="B36" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="4">
+        <v>539</v>
+      </c>
+      <c r="D37" s="4">
+        <v>539</v>
+      </c>
+      <c r="E37" s="4">
+        <v>539</v>
+      </c>
+      <c r="F37" s="4">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
       <c r="B38" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
     </row>
-    <row r="40" spans="1:6" ht="23.4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="23.4" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+    </row>
+    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>1</v>
       </c>
@@ -1161,35 +1514,73 @@
         <v>12</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="4"/>
+      <c r="C42" s="4">
+        <v>93</v>
+      </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H42" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="5"/>
+    </row>
+    <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12"/>
       <c r="B43" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="7"/>
+      <c r="C43" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="H43" s="12"/>
+      <c r="I43" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>8</v>
       </c>
@@ -1200,8 +1591,18 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H44" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="5"/>
+    </row>
+    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12"/>
       <c r="B45" s="6" t="s">
         <v>4</v>
@@ -1210,8 +1611,16 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="H45" s="12"/>
+      <c r="I45" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>9</v>
       </c>
@@ -1222,8 +1631,18 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="5"/>
-    </row>
-    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H46" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="5"/>
+    </row>
+    <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="12"/>
       <c r="B47" s="6" t="s">
         <v>4</v>
@@ -1232,8 +1651,16 @@
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="H47" s="12"/>
+      <c r="I47" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>10</v>
       </c>
@@ -1244,8 +1671,18 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H48" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="5"/>
+    </row>
+    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="12"/>
       <c r="B49" s="6" t="s">
         <v>4</v>
@@ -1254,8 +1691,16 @@
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="8"/>
-    </row>
-    <row r="50" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="H49" s="12"/>
+      <c r="I49" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>11</v>
       </c>
@@ -1266,8 +1711,18 @@
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H50" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="5"/>
+    </row>
+    <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="12"/>
       <c r="B51" s="6" t="s">
         <v>4</v>
@@ -1276,19 +1731,35 @@
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="8"/>
-    </row>
-    <row r="52" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:6" ht="23.4" x14ac:dyDescent="0.35">
+      <c r="H51" s="12"/>
+      <c r="I51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="8"/>
+    </row>
+    <row r="52" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:13" ht="23.4" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
-    </row>
-    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+    </row>
+    <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>1</v>
       </c>
@@ -1300,35 +1771,69 @@
         <v>12</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="4"/>
+      <c r="C55" s="13"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="5"/>
-    </row>
-    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H55" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="5"/>
+    </row>
+    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12"/>
       <c r="B56" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="7"/>
+      <c r="C56" s="14"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="8"/>
-    </row>
-    <row r="57" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="H56" s="12"/>
+      <c r="I56" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="8"/>
+    </row>
+    <row r="57" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>8</v>
       </c>
@@ -1339,8 +1844,18 @@
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="5"/>
-    </row>
-    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="5"/>
+    </row>
+    <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="12"/>
       <c r="B58" s="6" t="s">
         <v>4</v>
@@ -1349,8 +1864,16 @@
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="8"/>
-    </row>
-    <row r="59" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="H58" s="12"/>
+      <c r="I58" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="8"/>
+    </row>
+    <row r="59" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>9</v>
       </c>
@@ -1361,8 +1884,18 @@
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="5"/>
-    </row>
-    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H59" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="5"/>
+    </row>
+    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="12"/>
       <c r="B60" s="6" t="s">
         <v>4</v>
@@ -1371,8 +1904,16 @@
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="8"/>
-    </row>
-    <row r="61" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="H60" s="12"/>
+      <c r="I60" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="8"/>
+    </row>
+    <row r="61" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>10</v>
       </c>
@@ -1383,8 +1924,18 @@
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="5"/>
-    </row>
-    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H61" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="5"/>
+    </row>
+    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="12"/>
       <c r="B62" s="6" t="s">
         <v>4</v>
@@ -1393,8 +1944,16 @@
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="8"/>
-    </row>
-    <row r="63" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="H62" s="12"/>
+      <c r="I62" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="8"/>
+    </row>
+    <row r="63" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>11</v>
       </c>
@@ -1405,8 +1964,18 @@
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="5"/>
-    </row>
-    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H63" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="5"/>
+    </row>
+    <row r="64" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="12"/>
       <c r="B64" s="6" t="s">
         <v>4</v>
@@ -1415,11 +1984,19 @@
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="8"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="8"/>
     </row>
     <row r="65" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:6" ht="23.4" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="10"/>
@@ -1439,10 +2016,10 @@
         <v>12</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1452,20 +2029,36 @@
       <c r="B68" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="5"/>
+      <c r="C68" s="4">
+        <v>98</v>
+      </c>
+      <c r="D68" s="4">
+        <v>123</v>
+      </c>
+      <c r="E68" s="4">
+        <v>112</v>
+      </c>
+      <c r="F68" s="5">
+        <v>97</v>
+      </c>
     </row>
     <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="12"/>
       <c r="B69" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="8"/>
+      <c r="C69" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="70" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
@@ -1474,20 +2067,36 @@
       <c r="B70" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="5"/>
+      <c r="C70" s="4">
+        <v>129</v>
+      </c>
+      <c r="D70" s="4">
+        <v>129</v>
+      </c>
+      <c r="E70" s="4">
+        <v>103</v>
+      </c>
+      <c r="F70" s="5">
+        <v>129</v>
+      </c>
     </row>
     <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="12"/>
       <c r="B71" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="8"/>
+      <c r="C71" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="72" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
@@ -1496,20 +2105,36 @@
       <c r="B72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="5"/>
+      <c r="C72" s="4">
+        <v>454</v>
+      </c>
+      <c r="D72" s="4">
+        <v>454</v>
+      </c>
+      <c r="E72" s="4">
+        <v>454</v>
+      </c>
+      <c r="F72" s="5">
+        <v>454</v>
+      </c>
     </row>
     <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="12"/>
       <c r="B73" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="8"/>
+      <c r="C73" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="74" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
@@ -1518,20 +2143,36 @@
       <c r="B74" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="5"/>
+      <c r="C74" s="4">
+        <v>189</v>
+      </c>
+      <c r="D74" s="4">
+        <v>189</v>
+      </c>
+      <c r="E74" s="4">
+        <v>189</v>
+      </c>
+      <c r="F74" s="5">
+        <v>160</v>
+      </c>
     </row>
     <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="12"/>
       <c r="B75" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="8"/>
+      <c r="C75" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="76" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
@@ -1540,25 +2181,41 @@
       <c r="B76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="5"/>
+      <c r="C76" s="4">
+        <v>539</v>
+      </c>
+      <c r="D76" s="4">
+        <v>539</v>
+      </c>
+      <c r="E76" s="4">
+        <v>539</v>
+      </c>
+      <c r="F76" s="5">
+        <v>539</v>
+      </c>
     </row>
     <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="12"/>
       <c r="B77" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="8"/>
+      <c r="C77" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="78" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="79" spans="1:6" ht="23.4" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="10"/>
@@ -1578,10 +2235,10 @@
         <v>12</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1591,20 +2248,36 @@
       <c r="B81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="5"/>
+      <c r="C81" s="4">
+        <v>127</v>
+      </c>
+      <c r="D81" s="4">
+        <v>107</v>
+      </c>
+      <c r="E81" s="4">
+        <v>107</v>
+      </c>
+      <c r="F81" s="5">
+        <v>114</v>
+      </c>
     </row>
     <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="12"/>
       <c r="B82" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="8"/>
+      <c r="C82" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="83" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A83" s="11" t="s">
@@ -1613,20 +2286,36 @@
       <c r="B83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="5"/>
+      <c r="C83" s="4">
+        <v>98</v>
+      </c>
+      <c r="D83" s="4">
+        <v>129</v>
+      </c>
+      <c r="E83" s="4">
+        <v>129</v>
+      </c>
+      <c r="F83" s="5">
+        <v>74</v>
+      </c>
     </row>
     <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="12"/>
       <c r="B84" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="8"/>
+      <c r="C84" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="85" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
@@ -1635,20 +2324,36 @@
       <c r="B85" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="5"/>
+      <c r="C85" s="4">
+        <v>454</v>
+      </c>
+      <c r="D85" s="4">
+        <v>454</v>
+      </c>
+      <c r="E85" s="4">
+        <v>454</v>
+      </c>
+      <c r="F85" s="5">
+        <v>454</v>
+      </c>
     </row>
     <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="12"/>
       <c r="B86" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="8"/>
+      <c r="C86" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="87" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
@@ -1657,20 +2362,36 @@
       <c r="B87" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="5"/>
+      <c r="C87" s="4">
+        <v>189</v>
+      </c>
+      <c r="D87" s="4">
+        <v>189</v>
+      </c>
+      <c r="E87" s="4">
+        <v>189</v>
+      </c>
+      <c r="F87" s="5">
+        <v>189</v>
+      </c>
     </row>
     <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="12"/>
       <c r="B88" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="8"/>
+      <c r="C88" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="89" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
@@ -1679,25 +2400,41 @@
       <c r="B89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="5"/>
+      <c r="C89" s="4">
+        <v>539</v>
+      </c>
+      <c r="D89" s="4">
+        <v>539</v>
+      </c>
+      <c r="E89" s="4">
+        <v>539</v>
+      </c>
+      <c r="F89" s="5">
+        <v>539</v>
+      </c>
     </row>
     <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="12"/>
       <c r="B90" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="8"/>
+      <c r="C90" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="91" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="92" spans="1:6" ht="23.4" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="10"/>
@@ -1717,10 +2454,10 @@
         <v>12</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1749,16 +2486,16 @@
         <v>4</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1768,20 +2505,36 @@
       <c r="B96" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="5"/>
+      <c r="C96" s="4">
+        <v>21</v>
+      </c>
+      <c r="D96" s="4">
+        <v>35</v>
+      </c>
+      <c r="E96" s="4">
+        <v>18</v>
+      </c>
+      <c r="F96" s="5">
+        <v>16</v>
+      </c>
     </row>
     <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="12"/>
       <c r="B97" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="8"/>
+      <c r="C97" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="98" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A98" s="11" t="s">
@@ -1790,20 +2543,36 @@
       <c r="B98" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="5"/>
+      <c r="C98" s="4">
+        <v>429</v>
+      </c>
+      <c r="D98" s="4">
+        <v>417</v>
+      </c>
+      <c r="E98" s="4">
+        <v>417</v>
+      </c>
+      <c r="F98" s="5">
+        <v>417</v>
+      </c>
     </row>
     <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="12"/>
       <c r="B99" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="8"/>
+      <c r="C99" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="100" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A100" s="11" t="s">
@@ -1812,20 +2581,36 @@
       <c r="B100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="5"/>
+      <c r="C100" s="4">
+        <v>40</v>
+      </c>
+      <c r="D100" s="4">
+        <v>29</v>
+      </c>
+      <c r="E100" s="4">
+        <v>19</v>
+      </c>
+      <c r="F100" s="5">
+        <v>16</v>
+      </c>
     </row>
     <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="12"/>
       <c r="B101" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="8"/>
+      <c r="C101" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="102" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A102" s="11" t="s">
@@ -1834,34 +2619,70 @@
       <c r="B102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="5"/>
+      <c r="C102" s="4">
+        <v>382</v>
+      </c>
+      <c r="D102" s="4">
+        <v>219</v>
+      </c>
+      <c r="E102" s="4">
+        <v>158</v>
+      </c>
+      <c r="F102" s="5">
+        <v>138</v>
+      </c>
     </row>
     <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="12"/>
       <c r="B103" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="8"/>
+      <c r="C103" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="104" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
+  <mergeCells count="50">
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="A22:A23"/>
@@ -1872,26 +2693,16 @@
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Versao1/Estudo dos dados.xlsx
+++ b/Versao1/Estudo dos dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monte\ProgetosIIA\TP_2_LucasMonteiro_2022153271\Work2_IIA\Versao1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A97A188-55EC-4FEF-B054-4FF574A13F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06162089-57E4-4CB4-ACF8-DC899AAE7656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="137">
   <si>
     <t>Trepa-Colinas com Vizinhança 1</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -74,9 +74,6 @@
     <t>Mutação Insersão</t>
   </si>
   <si>
-    <t>Hibrido</t>
-  </si>
-  <si>
     <t>650 it</t>
   </si>
   <si>
@@ -315,13 +312,139 @@
   </si>
   <si>
     <t>230.032257</t>
+  </si>
+  <si>
+    <t>254.327682</t>
+  </si>
+  <si>
+    <t>744.695007</t>
+  </si>
+  <si>
+    <t>192.750000</t>
+  </si>
+  <si>
+    <t>216.252518</t>
+  </si>
+  <si>
+    <t>244.326080</t>
+  </si>
+  <si>
+    <t>741.484985</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 230.819397</t>
+  </si>
+  <si>
+    <t>257.906250</t>
+  </si>
+  <si>
+    <t>738.958313</t>
+  </si>
+  <si>
+    <t>79.000000</t>
+  </si>
+  <si>
+    <t>226.719803</t>
+  </si>
+  <si>
+    <t>272.883362</t>
+  </si>
+  <si>
+    <t>759.809998</t>
+  </si>
+  <si>
+    <t>118.000000</t>
+  </si>
+  <si>
+    <t>235.871048</t>
+  </si>
+  <si>
+    <t>251.177292</t>
+  </si>
+  <si>
+    <t>748.726929</t>
+  </si>
+  <si>
+    <t>122.333336</t>
+  </si>
+  <si>
+    <t>227.724319</t>
+  </si>
+  <si>
+    <t>268.070099</t>
+  </si>
+  <si>
+    <t>756.219238</t>
+  </si>
+  <si>
+    <t>148.000000</t>
+  </si>
+  <si>
+    <t>112.533000</t>
+  </si>
+  <si>
+    <t>124.650000</t>
+  </si>
+  <si>
+    <t>119.000000</t>
+  </si>
+  <si>
+    <t>100.653765</t>
+  </si>
+  <si>
+    <t>116.340000</t>
+  </si>
+  <si>
+    <t>214.834167</t>
+  </si>
+  <si>
+    <t>247.065048</t>
+  </si>
+  <si>
+    <t>762.554993</t>
+  </si>
+  <si>
+    <t>122.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 253.804016</t>
+  </si>
+  <si>
+    <t>242.316177</t>
+  </si>
+  <si>
+    <t>750.489990</t>
+  </si>
+  <si>
+    <t>206.000000</t>
+  </si>
+  <si>
+    <t>235.726000</t>
+  </si>
+  <si>
+    <t>123.883630</t>
+  </si>
+  <si>
+    <t>67.000000</t>
+  </si>
+  <si>
+    <t>124.672700</t>
+  </si>
+  <si>
+    <t>111.000000</t>
+  </si>
+  <si>
+    <t>Hibrido 1</t>
+  </si>
+  <si>
+    <t>Hibrido 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +471,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -369,7 +500,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -476,11 +607,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -508,14 +654,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -836,14 +989,14 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -863,25 +1016,25 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="5" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -901,25 +1054,25 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -939,25 +1092,25 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -977,25 +1130,25 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1015,21 +1168,21 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1058,14 +1211,14 @@
         <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="16" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1085,25 +1238,25 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="18" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1123,25 +1276,25 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1161,25 +1314,25 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1199,25 +1352,25 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="12"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1237,21 +1390,21 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="12"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1284,14 +1437,14 @@
         <v>12</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="29" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1311,25 +1464,25 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="12"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="F30" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="31" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1349,25 +1502,25 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="12"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -1387,25 +1540,25 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="12"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="E34" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -1425,25 +1578,25 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="12"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1463,21 +1616,21 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="12"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1486,7 +1639,7 @@
     </row>
     <row r="40" spans="1:13" ht="23.4" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="10"/>
@@ -1494,7 +1647,7 @@
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
       <c r="H40" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="10"/>
@@ -1514,10 +1667,10 @@
         <v>12</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>1</v>
@@ -1530,14 +1683,14 @@
         <v>12</v>
       </c>
       <c r="L41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M41" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="42" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -1546,204 +1699,360 @@
       <c r="C42" s="4">
         <v>93</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="5"/>
-      <c r="H42" s="11" t="s">
+      <c r="D42" s="4">
+        <v>122</v>
+      </c>
+      <c r="E42" s="4">
+        <v>100</v>
+      </c>
+      <c r="F42" s="5">
+        <v>91</v>
+      </c>
+      <c r="H42" s="13" t="s">
         <v>7</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="5"/>
+      <c r="J42" s="4">
+        <v>116</v>
+      </c>
+      <c r="K42" s="4">
+        <v>132</v>
+      </c>
+      <c r="L42" s="4">
+        <v>106</v>
+      </c>
+      <c r="M42" s="5">
+        <v>102</v>
+      </c>
     </row>
     <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="12"/>
+      <c r="A43" s="14"/>
       <c r="B43" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H43" s="14"/>
+      <c r="I43" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="4">
         <v>95</v>
       </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="8"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="8"/>
-    </row>
-    <row r="44" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
+      <c r="D44" s="4">
+        <v>93</v>
+      </c>
+      <c r="E44" s="4">
+        <v>83</v>
+      </c>
+      <c r="F44" s="4">
+        <v>65</v>
+      </c>
+      <c r="H44" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="5"/>
-      <c r="H44" s="11" t="s">
-        <v>8</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="5"/>
+      <c r="J44" s="4">
+        <v>123</v>
+      </c>
+      <c r="K44" s="4">
+        <v>110</v>
+      </c>
+      <c r="L44" s="4">
+        <v>96</v>
+      </c>
+      <c r="M44" s="4">
+        <v>78</v>
+      </c>
     </row>
     <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="12"/>
+      <c r="A45" s="14"/>
       <c r="B45" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="8"/>
-      <c r="H45" s="12"/>
+      <c r="C45" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H45" s="14"/>
       <c r="I45" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="8"/>
+      <c r="J45" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="46" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="5"/>
-      <c r="H46" s="11" t="s">
+      <c r="C46" s="4">
+        <v>652</v>
+      </c>
+      <c r="D46" s="4">
+        <v>593</v>
+      </c>
+      <c r="E46" s="4">
+        <v>568</v>
+      </c>
+      <c r="F46" s="5">
+        <v>429</v>
+      </c>
+      <c r="H46" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="5"/>
+      <c r="J46" s="4">
+        <v>646</v>
+      </c>
+      <c r="K46" s="4">
+        <v>572</v>
+      </c>
+      <c r="L46" s="4">
+        <v>543</v>
+      </c>
+      <c r="M46" s="5">
+        <v>430</v>
+      </c>
     </row>
     <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="12"/>
+      <c r="A47" s="14"/>
       <c r="B47" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="8"/>
-      <c r="H47" s="12"/>
+      <c r="C47" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H47" s="14"/>
       <c r="I47" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="8"/>
+      <c r="J47" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="48" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="5"/>
-      <c r="H48" s="11" t="s">
+      <c r="C48" s="4">
+        <v>180</v>
+      </c>
+      <c r="D48" s="4">
+        <v>69</v>
+      </c>
+      <c r="E48" s="4">
+        <v>103</v>
+      </c>
+      <c r="F48" s="4">
+        <v>98</v>
+      </c>
+      <c r="H48" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="5"/>
+      <c r="J48" s="4">
+        <v>122</v>
+      </c>
+      <c r="K48" s="4">
+        <v>56</v>
+      </c>
+      <c r="L48" s="4">
+        <v>98</v>
+      </c>
+      <c r="M48" s="4">
+        <v>96</v>
+      </c>
     </row>
     <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="12"/>
+      <c r="A49" s="14"/>
       <c r="B49" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="8"/>
-      <c r="H49" s="12"/>
+      <c r="C49" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H49" s="14"/>
       <c r="I49" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="8"/>
+      <c r="J49" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="50" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="5"/>
-      <c r="H50" s="11" t="s">
+      <c r="C50" s="4">
+        <v>539</v>
+      </c>
+      <c r="D50" s="4">
+        <v>539</v>
+      </c>
+      <c r="E50" s="4">
+        <v>539</v>
+      </c>
+      <c r="F50" s="4">
+        <v>539</v>
+      </c>
+      <c r="H50" s="13" t="s">
         <v>11</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="5"/>
+      <c r="J50" s="4">
+        <v>539</v>
+      </c>
+      <c r="K50" s="4">
+        <v>539</v>
+      </c>
+      <c r="L50" s="4">
+        <v>539</v>
+      </c>
+      <c r="M50" s="4">
+        <v>539</v>
+      </c>
     </row>
     <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="12"/>
+      <c r="A51" s="14"/>
       <c r="B51" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="8"/>
-      <c r="H51" s="12"/>
+      <c r="C51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" s="14"/>
       <c r="I51" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="8"/>
+      <c r="J51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="52" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:13" ht="23.4" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="10"/>
@@ -1751,7 +2060,7 @@
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="H53" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="10"/>
@@ -1771,10 +2080,10 @@
         <v>12</v>
       </c>
       <c r="E54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>1</v>
@@ -1787,211 +2096,371 @@
         <v>12</v>
       </c>
       <c r="L54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M54" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M54" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="55" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="5"/>
-      <c r="H55" s="11" t="s">
+      <c r="C55" s="12">
+        <v>99</v>
+      </c>
+      <c r="D55" s="4">
+        <v>98</v>
+      </c>
+      <c r="E55" s="4">
+        <v>96</v>
+      </c>
+      <c r="F55" s="5">
+        <v>86</v>
+      </c>
+      <c r="H55" s="13" t="s">
         <v>7</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="5"/>
+      <c r="J55" s="4">
+        <v>104</v>
+      </c>
+      <c r="K55" s="4">
+        <v>122</v>
+      </c>
+      <c r="L55" s="4">
+        <v>100</v>
+      </c>
+      <c r="M55" s="5">
+        <v>91</v>
+      </c>
     </row>
     <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="12"/>
+      <c r="A56" s="14"/>
       <c r="B56" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="8"/>
-      <c r="H56" s="12"/>
+      <c r="C56" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H56" s="14"/>
       <c r="I56" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="8"/>
+      <c r="J56" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="57" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="5"/>
-      <c r="H57" s="11" t="s">
+      <c r="C57" s="4">
+        <v>112</v>
+      </c>
+      <c r="D57" s="4">
+        <v>82</v>
+      </c>
+      <c r="E57" s="4">
+        <v>55</v>
+      </c>
+      <c r="F57" s="4">
+        <v>43</v>
+      </c>
+      <c r="H57" s="13" t="s">
         <v>8</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="5"/>
+      <c r="J57" s="4">
+        <v>70</v>
+      </c>
+      <c r="K57" s="4">
+        <v>93</v>
+      </c>
+      <c r="L57" s="4">
+        <v>83</v>
+      </c>
+      <c r="M57" s="4">
+        <v>65</v>
+      </c>
     </row>
     <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="12"/>
+      <c r="A58" s="14"/>
       <c r="B58" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="8"/>
-      <c r="H58" s="12"/>
+      <c r="C58" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H58" s="14"/>
       <c r="I58" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="8"/>
+      <c r="J58" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="59" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="5"/>
-      <c r="H59" s="11" t="s">
+      <c r="C59" s="4">
+        <v>633</v>
+      </c>
+      <c r="D59" s="4">
+        <v>540</v>
+      </c>
+      <c r="E59" s="4">
+        <v>614</v>
+      </c>
+      <c r="F59" s="5">
+        <v>430</v>
+      </c>
+      <c r="H59" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="5"/>
+      <c r="J59" s="4">
+        <v>628</v>
+      </c>
+      <c r="K59" s="4">
+        <v>593</v>
+      </c>
+      <c r="L59" s="4">
+        <v>568</v>
+      </c>
+      <c r="M59" s="5">
+        <v>429</v>
+      </c>
     </row>
     <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="12"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="8"/>
-      <c r="H60" s="12"/>
+      <c r="C60" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H60" s="14"/>
       <c r="I60" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="8"/>
-    </row>
-    <row r="61" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="11" t="s">
+      <c r="J60" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M60" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="5"/>
-      <c r="H61" s="11" t="s">
+      <c r="C61" s="4">
+        <v>180</v>
+      </c>
+      <c r="D61" s="4">
+        <v>118</v>
+      </c>
+      <c r="E61" s="4">
+        <v>106</v>
+      </c>
+      <c r="F61" s="4">
+        <v>96</v>
+      </c>
+      <c r="H61" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I61" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="5"/>
-    </row>
-    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="12"/>
+      <c r="J61" s="15">
+        <v>206</v>
+      </c>
+      <c r="K61" s="4">
+        <v>69</v>
+      </c>
+      <c r="L61" s="4">
+        <v>103</v>
+      </c>
+      <c r="M61" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="14"/>
       <c r="B62" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="8"/>
-      <c r="H62" s="12"/>
+      <c r="C62" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H62" s="14"/>
       <c r="I62" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="8"/>
+      <c r="J62" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="63" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="5"/>
-      <c r="H63" s="11" t="s">
+      <c r="C63" s="4">
+        <v>539</v>
+      </c>
+      <c r="D63" s="4">
+        <v>539</v>
+      </c>
+      <c r="E63" s="4">
+        <v>539</v>
+      </c>
+      <c r="F63" s="4">
+        <v>539</v>
+      </c>
+      <c r="H63" s="13" t="s">
         <v>11</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="5"/>
+      <c r="J63" s="4">
+        <v>539</v>
+      </c>
+      <c r="K63" s="4">
+        <v>539</v>
+      </c>
+      <c r="L63" s="4">
+        <v>539</v>
+      </c>
+      <c r="M63" s="4">
+        <v>539</v>
+      </c>
     </row>
     <row r="64" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="12"/>
+      <c r="A64" s="14"/>
       <c r="B64" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="8"/>
-      <c r="H64" s="12"/>
+      <c r="C64" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H64" s="14"/>
       <c r="I64" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="8"/>
+      <c r="J64" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L64" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M64" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="65" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:6" ht="23.4" x14ac:dyDescent="0.35">
@@ -2016,14 +2485,14 @@
         <v>12</v>
       </c>
       <c r="E67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="68" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -2043,25 +2512,25 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="12"/>
+      <c r="A69" s="14"/>
       <c r="B69" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -2081,25 +2550,25 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="12"/>
+      <c r="A71" s="14"/>
       <c r="B71" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -2119,25 +2588,25 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="12"/>
+      <c r="A73" s="14"/>
       <c r="B73" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -2157,25 +2626,25 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="12"/>
+      <c r="A75" s="14"/>
       <c r="B75" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -2195,21 +2664,21 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="12"/>
+      <c r="A77" s="14"/>
       <c r="B77" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -2235,14 +2704,14 @@
         <v>12</v>
       </c>
       <c r="E80" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="11" t="s">
+    </row>
+    <row r="81" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -2261,26 +2730,26 @@
         <v>114</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="12"/>
+    <row r="82" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="14"/>
       <c r="B82" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B83" s="3" t="s">
@@ -2299,26 +2768,26 @@
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="12"/>
+    <row r="84" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="14"/>
       <c r="B84" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -2337,26 +2806,26 @@
         <v>454</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="12"/>
+    <row r="86" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="14"/>
       <c r="B86" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -2375,74 +2844,82 @@
         <v>189</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="12"/>
+    <row r="88" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="14"/>
       <c r="B88" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C88" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="4">
+        <v>539</v>
+      </c>
+      <c r="D89" s="4">
+        <v>539</v>
+      </c>
+      <c r="E89" s="4">
+        <v>539</v>
+      </c>
+      <c r="F89" s="5">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="14"/>
+      <c r="B90" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D90" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E90" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="F90" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" s="4">
-        <v>539</v>
-      </c>
-      <c r="D89" s="4">
-        <v>539</v>
-      </c>
-      <c r="E89" s="4">
-        <v>539</v>
-      </c>
-      <c r="F89" s="5">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="12"/>
-      <c r="B90" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="92" spans="1:6" ht="23.4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="92" spans="1:13" ht="23.4" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
-    </row>
-    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H92" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I92" s="1"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+    </row>
+    <row r="93" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>1</v>
       </c>
@@ -2454,14 +2931,30 @@
         <v>12</v>
       </c>
       <c r="E93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="11" t="s">
+      <c r="H93" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B94" s="3" t="s">
@@ -2479,27 +2972,61 @@
       <c r="F94" s="5">
         <v>52</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="12"/>
+      <c r="H94" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="4">
+        <v>52</v>
+      </c>
+      <c r="K94" s="4">
+        <v>52</v>
+      </c>
+      <c r="L94" s="4">
+        <v>52</v>
+      </c>
+      <c r="M94" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="14"/>
       <c r="B95" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C95" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="E95" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="F95" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F95" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="11" t="s">
+      <c r="H95" s="14"/>
+      <c r="I95" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L95" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M95" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B96" s="3" t="s">
@@ -2517,27 +3044,61 @@
       <c r="F96" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="12"/>
+      <c r="H96" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J96" s="4">
+        <v>21</v>
+      </c>
+      <c r="K96" s="4">
+        <v>35</v>
+      </c>
+      <c r="L96" s="4">
+        <v>18</v>
+      </c>
+      <c r="M96" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="14"/>
       <c r="B97" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C97" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="E97" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="F97" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F97" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="11" t="s">
+      <c r="H97" s="14"/>
+      <c r="I97" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L97" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M97" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B98" s="3" t="s">
@@ -2555,27 +3116,61 @@
       <c r="F98" s="5">
         <v>417</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="12"/>
+      <c r="H98" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J98" s="4">
+        <v>429</v>
+      </c>
+      <c r="K98" s="4">
+        <v>417</v>
+      </c>
+      <c r="L98" s="4">
+        <v>417</v>
+      </c>
+      <c r="M98" s="5">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="14"/>
       <c r="B99" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C99" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D99" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="E99" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="F99" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F99" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="11" t="s">
+      <c r="H99" s="14"/>
+      <c r="I99" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L99" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M99" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B100" s="3" t="s">
@@ -2593,27 +3188,61 @@
       <c r="F100" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="12"/>
+      <c r="H100" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="4">
+        <v>40</v>
+      </c>
+      <c r="K100" s="4">
+        <v>29</v>
+      </c>
+      <c r="L100" s="4">
+        <v>19</v>
+      </c>
+      <c r="M100" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="14"/>
       <c r="B101" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C101" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D101" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="E101" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="F101" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F101" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="11" t="s">
+      <c r="H101" s="14"/>
+      <c r="I101" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L101" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M101" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B102" s="3" t="s">
@@ -2631,28 +3260,67 @@
       <c r="F102" s="5">
         <v>138</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="12"/>
+      <c r="H102" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="4">
+        <v>382</v>
+      </c>
+      <c r="K102" s="4">
+        <v>219</v>
+      </c>
+      <c r="L102" s="4">
+        <v>158</v>
+      </c>
+      <c r="M102" s="5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="14"/>
       <c r="B103" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C103" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D103" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="E103" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="F103" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F103" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L103" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M103" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="55">
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="H102:H103"/>
     <mergeCell ref="H55:H56"/>
     <mergeCell ref="H57:H58"/>
     <mergeCell ref="H59:H60"/>
@@ -2705,5 +3373,6 @@
     <mergeCell ref="A35:A36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Versao1/Estudo dos dados.xlsx
+++ b/Versao1/Estudo dos dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monte\ProgetosIIA\TP_2_LucasMonteiro_2022153271\Work2_IIA\Versao1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06162089-57E4-4CB4-ACF8-DC899AAE7656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D00CF7-618D-4B3D-9C40-0CF3503AFDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="150">
   <si>
     <t>Trepa-Colinas com Vizinhança 1</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -438,13 +438,52 @@
   </si>
   <si>
     <t>Hibrido 2</t>
+  </si>
+  <si>
+    <t>131.314606</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 466.220001</t>
+  </si>
+  <si>
+    <t>536.000000</t>
+  </si>
+  <si>
+    <t>84.2567000</t>
+  </si>
+  <si>
+    <t>51.456000</t>
+  </si>
+  <si>
+    <t>411.222393</t>
+  </si>
+  <si>
+    <t>Melhores Pesquisas</t>
+  </si>
+  <si>
+    <t>Melhor pesquisa local</t>
+  </si>
+  <si>
+    <t>Melhor evolutivo</t>
+  </si>
+  <si>
+    <t>Melhor Hibrido</t>
+  </si>
+  <si>
+    <t>415.000000</t>
+  </si>
+  <si>
+    <t>92.400002</t>
+  </si>
+  <si>
+    <t>Trepa colinas com 2 vizinhança</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,8 +518,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="19"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,8 +545,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -622,11 +674,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -660,14 +781,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -949,16 +1077,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:M112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.21875" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
     <col min="3" max="3" width="15.77734375" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
@@ -996,7 +1124,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1016,7 +1144,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1034,7 +1162,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1054,7 +1182,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1072,7 +1200,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1092,7 +1220,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
@@ -1110,7 +1238,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1130,7 +1258,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
@@ -1148,7 +1276,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1168,7 +1296,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="6" t="s">
         <v>4</v>
       </c>
@@ -1218,17 +1346,17 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D16" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E16" s="4">
         <v>52</v>
@@ -1238,7 +1366,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="6" t="s">
         <v>4</v>
       </c>
@@ -1246,7 +1374,7 @@
         <v>17</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>19</v>
@@ -1256,14 +1384,14 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="4">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D18" s="4">
         <v>129</v>
@@ -1276,7 +1404,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="14"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="6" t="s">
         <v>4</v>
       </c>
@@ -1294,27 +1422,27 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="4">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D20" s="4">
         <v>437</v>
       </c>
       <c r="E20" s="4">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F20" s="5">
         <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="14"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="6" t="s">
         <v>4</v>
       </c>
@@ -1325,14 +1453,14 @@
         <v>22</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1352,7 +1480,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="14"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="6" t="s">
         <v>4</v>
       </c>
@@ -1370,7 +1498,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1390,7 +1518,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="14"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="6" t="s">
         <v>4</v>
       </c>
@@ -1444,7 +1572,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1464,7 +1592,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="14"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="6" t="s">
         <v>4</v>
       </c>
@@ -1482,7 +1610,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1502,7 +1630,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="14"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="6" t="s">
         <v>4</v>
       </c>
@@ -1520,7 +1648,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -1540,7 +1668,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="14"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="6" t="s">
         <v>4</v>
       </c>
@@ -1558,7 +1686,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -1578,7 +1706,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="14"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="6" t="s">
         <v>4</v>
       </c>
@@ -1596,7 +1724,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1616,7 +1744,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="14"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="6" t="s">
         <v>4</v>
       </c>
@@ -1690,7 +1818,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -1708,7 +1836,7 @@
       <c r="F42" s="5">
         <v>91</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="H42" s="21" t="s">
         <v>7</v>
       </c>
       <c r="I42" s="3" t="s">
@@ -1728,7 +1856,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="14"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="6" t="s">
         <v>4</v>
       </c>
@@ -1744,7 +1872,7 @@
       <c r="F43" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="H43" s="14"/>
+      <c r="H43" s="22"/>
       <c r="I43" s="6" t="s">
         <v>4</v>
       </c>
@@ -1762,7 +1890,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -1780,7 +1908,7 @@
       <c r="F44" s="4">
         <v>65</v>
       </c>
-      <c r="H44" s="13" t="s">
+      <c r="H44" s="21" t="s">
         <v>8</v>
       </c>
       <c r="I44" s="3" t="s">
@@ -1800,7 +1928,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="14"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="6" t="s">
         <v>4</v>
       </c>
@@ -1816,7 +1944,7 @@
       <c r="F45" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H45" s="14"/>
+      <c r="H45" s="22"/>
       <c r="I45" s="6" t="s">
         <v>4</v>
       </c>
@@ -1834,7 +1962,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -1852,7 +1980,7 @@
       <c r="F46" s="5">
         <v>429</v>
       </c>
-      <c r="H46" s="13" t="s">
+      <c r="H46" s="21" t="s">
         <v>9</v>
       </c>
       <c r="I46" s="3" t="s">
@@ -1872,7 +2000,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="14"/>
+      <c r="A47" s="22"/>
       <c r="B47" s="6" t="s">
         <v>4</v>
       </c>
@@ -1888,7 +2016,7 @@
       <c r="F47" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H47" s="14"/>
+      <c r="H47" s="22"/>
       <c r="I47" s="6" t="s">
         <v>4</v>
       </c>
@@ -1906,7 +2034,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -1924,7 +2052,7 @@
       <c r="F48" s="4">
         <v>98</v>
       </c>
-      <c r="H48" s="13" t="s">
+      <c r="H48" s="21" t="s">
         <v>10</v>
       </c>
       <c r="I48" s="3" t="s">
@@ -1944,7 +2072,7 @@
       </c>
     </row>
     <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="14"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="6" t="s">
         <v>4</v>
       </c>
@@ -1960,7 +2088,7 @@
       <c r="F49" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H49" s="14"/>
+      <c r="H49" s="22"/>
       <c r="I49" s="6" t="s">
         <v>4</v>
       </c>
@@ -1978,7 +2106,7 @@
       </c>
     </row>
     <row r="50" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -1996,7 +2124,7 @@
       <c r="F50" s="4">
         <v>539</v>
       </c>
-      <c r="H50" s="13" t="s">
+      <c r="H50" s="21" t="s">
         <v>11</v>
       </c>
       <c r="I50" s="3" t="s">
@@ -2016,7 +2144,7 @@
       </c>
     </row>
     <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="14"/>
+      <c r="A51" s="22"/>
       <c r="B51" s="6" t="s">
         <v>4</v>
       </c>
@@ -2032,7 +2160,7 @@
       <c r="F51" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H51" s="14"/>
+      <c r="H51" s="22"/>
       <c r="I51" s="6" t="s">
         <v>4</v>
       </c>
@@ -2103,7 +2231,7 @@
       </c>
     </row>
     <row r="55" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -2121,7 +2249,7 @@
       <c r="F55" s="5">
         <v>86</v>
       </c>
-      <c r="H55" s="13" t="s">
+      <c r="H55" s="21" t="s">
         <v>7</v>
       </c>
       <c r="I55" s="3" t="s">
@@ -2141,7 +2269,7 @@
       </c>
     </row>
     <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="14"/>
+      <c r="A56" s="22"/>
       <c r="B56" s="6" t="s">
         <v>4</v>
       </c>
@@ -2157,7 +2285,7 @@
       <c r="F56" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="H56" s="14"/>
+      <c r="H56" s="22"/>
       <c r="I56" s="6" t="s">
         <v>4</v>
       </c>
@@ -2175,7 +2303,7 @@
       </c>
     </row>
     <row r="57" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -2193,7 +2321,7 @@
       <c r="F57" s="4">
         <v>43</v>
       </c>
-      <c r="H57" s="13" t="s">
+      <c r="H57" s="21" t="s">
         <v>8</v>
       </c>
       <c r="I57" s="3" t="s">
@@ -2213,7 +2341,7 @@
       </c>
     </row>
     <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="14"/>
+      <c r="A58" s="22"/>
       <c r="B58" s="6" t="s">
         <v>4</v>
       </c>
@@ -2229,7 +2357,7 @@
       <c r="F58" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H58" s="14"/>
+      <c r="H58" s="22"/>
       <c r="I58" s="6" t="s">
         <v>4</v>
       </c>
@@ -2247,7 +2375,7 @@
       </c>
     </row>
     <row r="59" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -2265,7 +2393,7 @@
       <c r="F59" s="5">
         <v>430</v>
       </c>
-      <c r="H59" s="13" t="s">
+      <c r="H59" s="21" t="s">
         <v>9</v>
       </c>
       <c r="I59" s="3" t="s">
@@ -2285,7 +2413,7 @@
       </c>
     </row>
     <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="14"/>
+      <c r="A60" s="22"/>
       <c r="B60" s="6" t="s">
         <v>4</v>
       </c>
@@ -2301,7 +2429,7 @@
       <c r="F60" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H60" s="14"/>
+      <c r="H60" s="22"/>
       <c r="I60" s="6" t="s">
         <v>4</v>
       </c>
@@ -2319,7 +2447,7 @@
       </c>
     </row>
     <row r="61" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -2337,13 +2465,13 @@
       <c r="F61" s="4">
         <v>96</v>
       </c>
-      <c r="H61" s="13" t="s">
+      <c r="H61" s="21" t="s">
         <v>10</v>
       </c>
       <c r="I61" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J61" s="15">
+      <c r="J61" s="13">
         <v>206</v>
       </c>
       <c r="K61" s="4">
@@ -2357,7 +2485,7 @@
       </c>
     </row>
     <row r="62" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="14"/>
+      <c r="A62" s="22"/>
       <c r="B62" s="6" t="s">
         <v>4</v>
       </c>
@@ -2373,7 +2501,7 @@
       <c r="F62" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H62" s="14"/>
+      <c r="H62" s="22"/>
       <c r="I62" s="6" t="s">
         <v>4</v>
       </c>
@@ -2391,7 +2519,7 @@
       </c>
     </row>
     <row r="63" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -2409,7 +2537,7 @@
       <c r="F63" s="4">
         <v>539</v>
       </c>
-      <c r="H63" s="13" t="s">
+      <c r="H63" s="21" t="s">
         <v>11</v>
       </c>
       <c r="I63" s="3" t="s">
@@ -2429,7 +2557,7 @@
       </c>
     </row>
     <row r="64" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="14"/>
+      <c r="A64" s="22"/>
       <c r="B64" s="6" t="s">
         <v>4</v>
       </c>
@@ -2445,7 +2573,7 @@
       <c r="F64" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H64" s="14"/>
+      <c r="H64" s="22"/>
       <c r="I64" s="6" t="s">
         <v>4</v>
       </c>
@@ -2492,7 +2620,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -2512,7 +2640,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="14"/>
+      <c r="A69" s="22"/>
       <c r="B69" s="6" t="s">
         <v>4</v>
       </c>
@@ -2530,7 +2658,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -2550,7 +2678,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="14"/>
+      <c r="A71" s="22"/>
       <c r="B71" s="6" t="s">
         <v>4</v>
       </c>
@@ -2568,7 +2696,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -2588,7 +2716,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="14"/>
+      <c r="A73" s="22"/>
       <c r="B73" s="6" t="s">
         <v>4</v>
       </c>
@@ -2606,7 +2734,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -2626,7 +2754,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="14"/>
+      <c r="A75" s="22"/>
       <c r="B75" s="6" t="s">
         <v>4</v>
       </c>
@@ -2644,7 +2772,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -2664,7 +2792,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="14"/>
+      <c r="A77" s="22"/>
       <c r="B77" s="6" t="s">
         <v>4</v>
       </c>
@@ -2711,7 +2839,7 @@
       </c>
     </row>
     <row r="81" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -2731,7 +2859,7 @@
       </c>
     </row>
     <row r="82" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="14"/>
+      <c r="A82" s="22"/>
       <c r="B82" s="6" t="s">
         <v>4</v>
       </c>
@@ -2749,7 +2877,7 @@
       </c>
     </row>
     <row r="83" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="13" t="s">
+      <c r="A83" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B83" s="3" t="s">
@@ -2769,7 +2897,7 @@
       </c>
     </row>
     <row r="84" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="14"/>
+      <c r="A84" s="22"/>
       <c r="B84" s="6" t="s">
         <v>4</v>
       </c>
@@ -2787,7 +2915,7 @@
       </c>
     </row>
     <row r="85" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -2807,7 +2935,7 @@
       </c>
     </row>
     <row r="86" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="14"/>
+      <c r="A86" s="22"/>
       <c r="B86" s="6" t="s">
         <v>4</v>
       </c>
@@ -2825,7 +2953,7 @@
       </c>
     </row>
     <row r="87" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -2845,7 +2973,7 @@
       </c>
     </row>
     <row r="88" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="14"/>
+      <c r="A88" s="22"/>
       <c r="B88" s="6" t="s">
         <v>4</v>
       </c>
@@ -2863,7 +2991,7 @@
       </c>
     </row>
     <row r="89" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B89" s="3" t="s">
@@ -2883,7 +3011,7 @@
       </c>
     </row>
     <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="14"/>
+      <c r="A90" s="22"/>
       <c r="B90" s="6" t="s">
         <v>4</v>
       </c>
@@ -2954,7 +3082,7 @@
       </c>
     </row>
     <row r="94" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="13" t="s">
+      <c r="A94" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B94" s="3" t="s">
@@ -2972,17 +3100,17 @@
       <c r="F94" s="5">
         <v>52</v>
       </c>
-      <c r="H94" s="13" t="s">
+      <c r="H94" s="21" t="s">
         <v>7</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J94" s="4">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K94" s="4">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="L94" s="4">
         <v>52</v>
@@ -2992,7 +3120,7 @@
       </c>
     </row>
     <row r="95" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="14"/>
+      <c r="A95" s="22"/>
       <c r="B95" s="6" t="s">
         <v>4</v>
       </c>
@@ -3008,15 +3136,15 @@
       <c r="F95" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H95" s="14"/>
+      <c r="H95" s="22"/>
       <c r="I95" s="6" t="s">
         <v>4</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="L95" s="7" t="s">
         <v>30</v>
@@ -3026,7 +3154,7 @@
       </c>
     </row>
     <row r="96" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="13" t="s">
+      <c r="A96" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B96" s="3" t="s">
@@ -3044,7 +3172,7 @@
       <c r="F96" s="5">
         <v>16</v>
       </c>
-      <c r="H96" s="13" t="s">
+      <c r="H96" s="21" t="s">
         <v>8</v>
       </c>
       <c r="I96" s="3" t="s">
@@ -3054,7 +3182,7 @@
         <v>21</v>
       </c>
       <c r="K96" s="4">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L96" s="4">
         <v>18</v>
@@ -3064,7 +3192,7 @@
       </c>
     </row>
     <row r="97" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="14"/>
+      <c r="A97" s="22"/>
       <c r="B97" s="6" t="s">
         <v>4</v>
       </c>
@@ -3080,7 +3208,7 @@
       <c r="F97" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H97" s="14"/>
+      <c r="H97" s="22"/>
       <c r="I97" s="6" t="s">
         <v>4</v>
       </c>
@@ -3090,15 +3218,15 @@
       <c r="K97" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L97" s="7" t="s">
-        <v>46</v>
+      <c r="L97" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="M97" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="13" t="s">
+      <c r="A98" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B98" s="3" t="s">
@@ -3116,17 +3244,17 @@
       <c r="F98" s="5">
         <v>417</v>
       </c>
-      <c r="H98" s="13" t="s">
+      <c r="H98" s="21" t="s">
         <v>9</v>
       </c>
       <c r="I98" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J98" s="4">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K98" s="4">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="L98" s="4">
         <v>417</v>
@@ -3136,7 +3264,7 @@
       </c>
     </row>
     <row r="99" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="14"/>
+      <c r="A99" s="22"/>
       <c r="B99" s="6" t="s">
         <v>4</v>
       </c>
@@ -3152,15 +3280,15 @@
       <c r="F99" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H99" s="14"/>
+      <c r="H99" s="22"/>
       <c r="I99" s="6" t="s">
         <v>4</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="K99" s="7" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="L99" s="7" t="s">
         <v>34</v>
@@ -3170,7 +3298,7 @@
       </c>
     </row>
     <row r="100" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="13" t="s">
+      <c r="A100" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B100" s="3" t="s">
@@ -3188,17 +3316,17 @@
       <c r="F100" s="5">
         <v>16</v>
       </c>
-      <c r="H100" s="13" t="s">
+      <c r="H100" s="21" t="s">
         <v>10</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J100" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K100" s="4">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="L100" s="4">
         <v>19</v>
@@ -3208,7 +3336,7 @@
       </c>
     </row>
     <row r="101" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="14"/>
+      <c r="A101" s="22"/>
       <c r="B101" s="6" t="s">
         <v>4</v>
       </c>
@@ -3224,25 +3352,25 @@
       <c r="F101" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H101" s="14"/>
+      <c r="H101" s="22"/>
       <c r="I101" s="6" t="s">
         <v>4</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="K101" s="7" t="s">
         <v>37</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="M101" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="13" t="s">
+      <c r="A102" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B102" s="3" t="s">
@@ -3260,17 +3388,17 @@
       <c r="F102" s="5">
         <v>138</v>
       </c>
-      <c r="H102" s="13" t="s">
+      <c r="H102" s="21" t="s">
         <v>11</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J102" s="4">
-        <v>382</v>
+        <v>468</v>
       </c>
       <c r="K102" s="4">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="L102" s="4">
         <v>158</v>
@@ -3280,7 +3408,7 @@
       </c>
     </row>
     <row r="103" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="14"/>
+      <c r="A103" s="22"/>
       <c r="B103" s="6" t="s">
         <v>4</v>
       </c>
@@ -3296,12 +3424,12 @@
       <c r="F103" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H103" s="14"/>
+      <c r="H103" s="22"/>
       <c r="I103" s="6" t="s">
         <v>4</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="K103" s="7" t="s">
         <v>41</v>
@@ -3314,6 +3442,39 @@
       </c>
     </row>
     <row r="104" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="107" spans="1:13" ht="23.4" x14ac:dyDescent="0.35">
+      <c r="A107" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A109" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A110" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112" s="16"/>
+    </row>
   </sheetData>
   <mergeCells count="55">
     <mergeCell ref="H94:H95"/>
